--- a/datasets/数据预处理.xlsx
+++ b/datasets/数据预处理.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zengyuxiang/Documents/科研代码/预测问题模板/datasets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8644F085-56FA-A445-A91C-F4BE371B0EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -53,14 +58,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,158 +68,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,194 +88,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -443,251 +112,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -698,61 +125,17 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1010,21 +393,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+      <selection activeCell="F1" sqref="F1:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1040,14 +423,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1063,14 +446,14 @@
       <c r="E2" s="2">
         <v>5</v>
       </c>
+      <c r="F2">
+        <v>826.53</v>
+      </c>
       <c r="G2">
-        <v>826.53</v>
-      </c>
-      <c r="H2">
         <v>1610</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1086,14 +469,14 @@
       <c r="E3" s="2">
         <v>6</v>
       </c>
+      <c r="F3">
+        <v>1682.35</v>
+      </c>
       <c r="G3">
-        <v>1682.35</v>
-      </c>
-      <c r="H3">
         <v>3940</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1109,14 +492,14 @@
       <c r="E4" s="2">
         <v>7</v>
       </c>
+      <c r="F4">
+        <v>2600</v>
+      </c>
       <c r="G4">
-        <v>2600</v>
-      </c>
-      <c r="H4">
         <v>7080</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1132,14 +515,14 @@
       <c r="E5" s="2">
         <v>8</v>
       </c>
+      <c r="F5">
+        <v>3400</v>
+      </c>
       <c r="G5">
-        <v>3400</v>
-      </c>
-      <c r="H5">
         <v>10800</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1155,14 +538,14 @@
       <c r="E6" s="2">
         <v>9</v>
       </c>
+      <c r="F6">
+        <v>4300</v>
+      </c>
       <c r="G6">
-        <v>4300</v>
-      </c>
-      <c r="H6">
         <v>14800</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1178,14 +561,14 @@
       <c r="E7" s="2">
         <v>10</v>
       </c>
+      <c r="F7">
+        <v>5000</v>
+      </c>
       <c r="G7">
-        <v>5000</v>
-      </c>
-      <c r="H7">
         <v>19300</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1201,14 +584,14 @@
       <c r="E8" s="2">
         <v>5</v>
       </c>
+      <c r="F8">
+        <v>2524.5</v>
+      </c>
       <c r="G8">
-        <v>2524.5</v>
-      </c>
-      <c r="H8">
         <v>5150</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1224,14 +607,14 @@
       <c r="E9" s="2">
         <v>6</v>
       </c>
+      <c r="F9">
+        <v>1700</v>
+      </c>
       <c r="G9">
-        <v>1700</v>
-      </c>
-      <c r="H9">
         <v>4950</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:7">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1247,14 +630,14 @@
       <c r="E10" s="2">
         <v>7</v>
       </c>
+      <c r="F10">
+        <v>2700</v>
+      </c>
       <c r="G10">
-        <v>2700</v>
-      </c>
-      <c r="H10">
         <v>7510</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1270,14 +653,14 @@
       <c r="E11" s="2">
         <v>8</v>
       </c>
+      <c r="F11">
+        <v>2200</v>
+      </c>
       <c r="G11">
-        <v>2200</v>
-      </c>
-      <c r="H11">
         <v>7180</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1293,14 +676,14 @@
       <c r="E12" s="2">
         <v>9</v>
       </c>
+      <c r="F12">
+        <v>4000</v>
+      </c>
       <c r="G12">
-        <v>4000</v>
-      </c>
-      <c r="H12">
         <v>13800</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1316,14 +699,14 @@
       <c r="E13" s="2">
         <v>10</v>
       </c>
+      <c r="F13">
+        <v>3500</v>
+      </c>
       <c r="G13">
-        <v>3500</v>
-      </c>
-      <c r="H13">
         <v>13400</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:7">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1339,14 +722,14 @@
       <c r="E14" s="2">
         <v>5</v>
       </c>
+      <c r="F14">
+        <v>4060.78</v>
+      </c>
       <c r="G14">
-        <v>4060.78</v>
-      </c>
-      <c r="H14">
         <v>8330</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:7">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1362,14 +745,14 @@
       <c r="E15" s="2">
         <v>6</v>
       </c>
+      <c r="F15">
+        <v>3600</v>
+      </c>
       <c r="G15">
-        <v>3600</v>
-      </c>
-      <c r="H15">
         <v>8990</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:7">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1385,14 +768,14 @@
       <c r="E16" s="2">
         <v>7</v>
       </c>
+      <c r="F16">
+        <v>900</v>
+      </c>
       <c r="G16">
-        <v>900</v>
-      </c>
-      <c r="H16">
         <v>2730</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:7">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1408,14 +791,14 @@
       <c r="E17" s="2">
         <v>8</v>
       </c>
+      <c r="F17">
+        <v>1400</v>
+      </c>
       <c r="G17">
-        <v>1400</v>
-      </c>
-      <c r="H17">
         <v>4510</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:7">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1431,14 +814,14 @@
       <c r="E18" s="2">
         <v>9</v>
       </c>
+      <c r="F18">
+        <v>2016.67</v>
+      </c>
       <c r="G18">
-        <v>2016.67</v>
-      </c>
-      <c r="H18">
         <v>8070</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:7">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1454,14 +837,14 @@
       <c r="E19" s="2">
         <v>10</v>
       </c>
+      <c r="F19">
+        <v>2400</v>
+      </c>
       <c r="G19">
-        <v>2400</v>
-      </c>
-      <c r="H19">
         <v>9350</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:7">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1477,14 +860,14 @@
       <c r="E20" s="2">
         <v>5</v>
       </c>
+      <c r="F20">
+        <v>3400</v>
+      </c>
       <c r="G20">
-        <v>3400</v>
-      </c>
-      <c r="H20">
         <v>6960</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:7">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1500,16 +883,16 @@
       <c r="E21" s="2">
         <v>6</v>
       </c>
+      <c r="F21">
+        <v>2120.41</v>
+      </c>
       <c r="G21">
-        <v>2120.41</v>
-      </c>
-      <c r="H21">
         <v>5110</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>